--- a/price.xlsx
+++ b/price.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\parser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5BEAB0-996E-4DB6-9909-2E7EFF2E2D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="30" yWindow="15" windowWidth="28770" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="price" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="271">
   <si>
     <t>Сеть</t>
   </si>
@@ -50,13 +56,790 @@
   </si>
   <si>
     <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Пятёрочка</t>
+  </si>
+  <si>
+    <t>Магнит</t>
+  </si>
+  <si>
+    <t>Бристоль</t>
+  </si>
+  <si>
+    <t>Мария-Ра</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>Пиво-Сидр</t>
+  </si>
+  <si>
+    <t>Пиво и сидр</t>
+  </si>
+  <si>
+    <t>Квас</t>
+  </si>
+  <si>
+    <t>Соки, нектары и сокосодержащие напитки</t>
+  </si>
+  <si>
+    <t>Газированная вода</t>
+  </si>
+  <si>
+    <t>Вода</t>
+  </si>
+  <si>
+    <t>Сидр</t>
+  </si>
+  <si>
+    <t>Энергетик</t>
+  </si>
+  <si>
+    <t>Б/А пиво</t>
+  </si>
+  <si>
+    <t>Напиток энергетический E-ON, Almond Rush; Black Power,…</t>
+  </si>
+  <si>
+    <t>Напиток пивной МИЛЛЕР Дженуин драфт, пастеризованный 4,7%,…</t>
+  </si>
+  <si>
+    <t>Квас Русский Дар Пэт 0,5л</t>
+  </si>
+  <si>
+    <t>Пиво ХАЙНЕКЕН, светлое, 4,8%: Бутылка, 0,47 л/ Банка, 0,43 Л</t>
+  </si>
+  <si>
+    <t>Квас Русский Дар, Традиционный, 2л</t>
+  </si>
+  <si>
+    <t>Пиво Heineken, светлое, 4,8%, 0,43 л, Цена указана при…</t>
+  </si>
+  <si>
+    <t>Сок J7, в ассортименте</t>
+  </si>
+  <si>
+    <t>Пиво Туборг Грин, Светлое, 0,48л С/б</t>
+  </si>
+  <si>
+    <t>Квас Петрович, Окрошечный, 1,5л</t>
+  </si>
+  <si>
+    <t>Пиво Балтика Мягкое № 7, Светлое, 0,44л</t>
+  </si>
+  <si>
+    <t>Напиток энергетический Adrenaline Rush, в ассортименте,…</t>
+  </si>
+  <si>
+    <t>Пиво Tuborg Green, светлое, 4,6%, 0,45-0,48 л</t>
+  </si>
+  <si>
+    <t>Напитки газированные ПЕПСИ/ МИРИНДА/ 7 АП, в ассортименте</t>
+  </si>
+  <si>
+    <t>Пиво Пшеничка, мягкое, нефильтрованное, светлое, 4,8%, 1,5 л</t>
+  </si>
+  <si>
+    <t>Напитки Pepsi; Pepsi Max; Mirinda; 7UP, 2 л Цена указана при…</t>
+  </si>
+  <si>
+    <t>Пиво Velkopopovicky Kozel, темное, 3,7% 0,45 л</t>
+  </si>
+  <si>
+    <t>Сок J7, апельсиновый с мякотью; яблочный, осветлённый, 0,3 л</t>
+  </si>
+  <si>
+    <t>Напиток пивной ВЕЛКОПОПОВИЦКИЙ КОЗЕЛ, темный, 3,7%: бутылка/…</t>
+  </si>
+  <si>
+    <t>Напиток газированный ПЕПСИ, 2 л</t>
+  </si>
+  <si>
+    <t>Пиво Жигули Барное, Экспорт, 4,8%, 0,45 л</t>
+  </si>
+  <si>
+    <t>Соки И Нектары Фруктовый Сад, В Ассортименте, 1,93л</t>
+  </si>
+  <si>
+    <t>Напиток пивной ЭССА, 6,5%: Ананас-грейпфрут/ Лайм-мята/…</t>
+  </si>
+  <si>
+    <t>Напитки Pepsi, классический; манго, 0,33 л, Цена указана при…</t>
+  </si>
+  <si>
+    <t>Пивной напиток Волковская пивоварня, в ассортименте, 4-5,9%,…</t>
+  </si>
+  <si>
+    <t>Газированный Напиток Мохито, Бочкари, Лайм-мята, 1,5л</t>
+  </si>
+  <si>
+    <t>Пиво ВЕЛКОПОПОВИЦКИЙ КОЗЕЛ, светлое, 4%: Банка/ Бутылка,…</t>
+  </si>
+  <si>
+    <t>Пиво STELLA ARTOIS® светлое, безалкогольное, 0,45л</t>
+  </si>
+  <si>
+    <t>Пиво ЭСТРЕЛЛА ДАММ светлое фильтрованное 4,6% (Испания),…</t>
+  </si>
+  <si>
+    <t>Соки и нектары J-7, в ассортименте, 0,97 л</t>
+  </si>
+  <si>
+    <t>Пивной напиток Redds, светлый, 4,5%, 0,33 л</t>
+  </si>
+  <si>
+    <t>Напиток Энергетический Адреналин Голд, В Ассортименте,…</t>
+  </si>
+  <si>
+    <t>Пиво Жигули Барное, светлое, 4,9%, 0,45 л</t>
+  </si>
+  <si>
+    <t>Вода Пилигрим, питьевая, негазированная, 5 л</t>
+  </si>
+  <si>
+    <t>Пиво BUD LIGHT, светлое, 4,1%: Банка, 0,45 л/ Бутылка,…</t>
+  </si>
+  <si>
+    <t>Газированный Напиток Черноголовка, В Ассортименте, 1,5л</t>
+  </si>
+  <si>
+    <t>Пиво Мазай, Светлое, 0,45л</t>
+  </si>
+  <si>
+    <t>Вода Минеральная Чистозерье, Лечебно-столовая, Газированная,…</t>
+  </si>
+  <si>
+    <t>Сидр СТРОНГБОУ, Яблочный, газированный, 4,5%, 0,4л</t>
+  </si>
+  <si>
+    <t>Вода Светлячок, Святой Источник, Негазированная, 1,5л</t>
+  </si>
+  <si>
+    <t>Пиво BUD®, светлое, 5%: Банка, 0,45 л/ Бутылка, 0,47 л</t>
+  </si>
+  <si>
+    <t>Газированный Напиток Аскания, В Ассортименте, 0,5л</t>
+  </si>
+  <si>
+    <t>Сок J7 апельсиновый, 0,97 л</t>
+  </si>
+  <si>
+    <t>Пиво КАРЛСБЕРГ, Светлое, 4,6%: Банка/ Бутылка, 0,45 л</t>
+  </si>
+  <si>
+    <t>Пиво Абаканское, светлое, 4,8%, 0,5 л</t>
+  </si>
+  <si>
+    <t>Вода Пилигрим, питьевая, газированная; негазированная, 0,5 л</t>
+  </si>
+  <si>
+    <t>Пиво Балтика мягкое № 7, светлое, 4,7%, 0,95 л</t>
+  </si>
+  <si>
+    <t>Напиток Любимый, в ассортименте, 0,75 л</t>
+  </si>
+  <si>
+    <t>Пиво Stella Artois, светлое, 5%, 0,44- 0,45 л</t>
+  </si>
+  <si>
+    <t>Напиток Газированный Эдем, Грушевый, 1,5л</t>
+  </si>
+  <si>
+    <t>Пиво СТЕЛЛА АРТУА, 5% светлое, пастеризованное, банка 0,45 л</t>
+  </si>
+  <si>
+    <t>Пивной Напиток Бад, Безалкогольный, 0,45л</t>
+  </si>
+  <si>
+    <t>Пиво СТЕЛЛА АРТУА, 5% светлое пастеризованное, бутылка 0,44л</t>
+  </si>
+  <si>
+    <t>Нектар Любимый, в ассортименте, 1,93 л</t>
+  </si>
+  <si>
+    <t>Пиво ЛЕВЕНБРАУ Оригинальное светлое пастеризованное 5,4%,…</t>
+  </si>
+  <si>
+    <t>Напиток пивной LOWENBRAU, Пшеничный, нефильтрованный,…</t>
+  </si>
+  <si>
+    <t>Сок J7 томатный, 0,97л</t>
+  </si>
+  <si>
+    <t>Пиво BUD® 66, светлое, 4,3%: Бутылка, 0,47 л</t>
+  </si>
+  <si>
+    <t>Вода Tassay, газированная; негазированная, 1,5л</t>
+  </si>
+  <si>
+    <t>Пиво имп. WILLIANBRAU WEIZEN СВЕТЛ. НЕФИЛЬТР. ПАСТЕР. Ж/Б.…</t>
+  </si>
+  <si>
+    <t>Пиво BUD® 66, светлое, 4,3%: Банка, 0,45 л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,45 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,33 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,5 л </t>
+  </si>
+  <si>
+    <t>Не указано</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,43 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">970 мл </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,48 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,5 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,44 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,93 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,97 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,4 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,95 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,75 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3 л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,47 л </t>
+  </si>
+  <si>
+    <t>По 30 июня</t>
+  </si>
+  <si>
+    <t>По 14 июня</t>
+  </si>
+  <si>
+    <t>По 15 июня</t>
+  </si>
+  <si>
+    <t>99,98</t>
+  </si>
+  <si>
+    <t>67,20</t>
+  </si>
+  <si>
+    <t>49,90</t>
+  </si>
+  <si>
+    <t>90,90</t>
+  </si>
+  <si>
+    <t>96,00</t>
+  </si>
+  <si>
+    <t>86,99</t>
+  </si>
+  <si>
+    <t>159,98</t>
+  </si>
+  <si>
+    <t>72,90</t>
+  </si>
+  <si>
+    <t>54,40</t>
+  </si>
+  <si>
+    <t>61,90</t>
+  </si>
+  <si>
+    <t>75,99</t>
+  </si>
+  <si>
+    <t>141,70</t>
+  </si>
+  <si>
+    <t>149,99</t>
+  </si>
+  <si>
+    <t>129,99</t>
+  </si>
+  <si>
+    <t>72,99</t>
+  </si>
+  <si>
+    <t>59,98</t>
+  </si>
+  <si>
+    <t>70,40</t>
+  </si>
+  <si>
+    <t>137,10</t>
+  </si>
+  <si>
+    <t>62,99</t>
+  </si>
+  <si>
+    <t>185,90</t>
+  </si>
+  <si>
+    <t>74,00</t>
+  </si>
+  <si>
+    <t>49,99</t>
+  </si>
+  <si>
+    <t>92,99</t>
+  </si>
+  <si>
+    <t>78,68</t>
+  </si>
+  <si>
+    <t>71,40</t>
+  </si>
+  <si>
+    <t>80,60</t>
+  </si>
+  <si>
+    <t>138,40</t>
+  </si>
+  <si>
+    <t>69,99</t>
+  </si>
+  <si>
+    <t>109,90</t>
+  </si>
+  <si>
+    <t>51,99</t>
+  </si>
+  <si>
+    <t>119,99</t>
+  </si>
+  <si>
+    <t>73,40</t>
+  </si>
+  <si>
+    <t>79,84</t>
+  </si>
+  <si>
+    <t>69,90</t>
+  </si>
+  <si>
+    <t>30,70</t>
+  </si>
+  <si>
+    <t>76,40</t>
+  </si>
+  <si>
+    <t>37,70</t>
+  </si>
+  <si>
+    <t>76,80</t>
+  </si>
+  <si>
+    <t>59,90</t>
+  </si>
+  <si>
+    <t>60,30</t>
+  </si>
+  <si>
+    <t>61,99</t>
+  </si>
+  <si>
+    <t>109,99</t>
+  </si>
+  <si>
+    <t>74,99</t>
+  </si>
+  <si>
+    <t>43,80</t>
+  </si>
+  <si>
+    <t>90,00</t>
+  </si>
+  <si>
+    <t>66,90</t>
+  </si>
+  <si>
+    <t>137,99</t>
+  </si>
+  <si>
+    <t>140,80</t>
+  </si>
+  <si>
+    <t>64,50</t>
+  </si>
+  <si>
+    <t>79,10</t>
+  </si>
+  <si>
+    <t>84,90</t>
+  </si>
+  <si>
+    <t>38,99</t>
+  </si>
+  <si>
+    <t>32,90</t>
+  </si>
+  <si>
+    <t>79,99</t>
+  </si>
+  <si>
+    <t>42,90</t>
+  </si>
+  <si>
+    <t>43,50</t>
+  </si>
+  <si>
+    <t>39,90</t>
+  </si>
+  <si>
+    <t>44,99</t>
+  </si>
+  <si>
+    <t>84,99</t>
+  </si>
+  <si>
+    <t>94,99</t>
+  </si>
+  <si>
+    <t>29,99</t>
+  </si>
+  <si>
+    <t>42,99</t>
+  </si>
+  <si>
+    <t>97,90</t>
+  </si>
+  <si>
+    <t>53,99</t>
+  </si>
+  <si>
+    <t>63,99</t>
+  </si>
+  <si>
+    <t>55,90</t>
+  </si>
+  <si>
+    <t>89,99</t>
+  </si>
+  <si>
+    <t>52,99</t>
+  </si>
+  <si>
+    <t>33,99</t>
+  </si>
+  <si>
+    <t>46,99</t>
+  </si>
+  <si>
+    <t>22,90</t>
+  </si>
+  <si>
+    <t>54,99</t>
+  </si>
+  <si>
+    <t>24,90</t>
+  </si>
+  <si>
+    <t>44,90</t>
+  </si>
+  <si>
+    <t>43,99</t>
+  </si>
+  <si>
+    <t>25,99</t>
+  </si>
+  <si>
+    <t>64,99</t>
+  </si>
+  <si>
+    <t>34,90</t>
+  </si>
+  <si>
+    <t>99,99</t>
+  </si>
+  <si>
+    <t>39,99</t>
+  </si>
+  <si>
+    <t>54,90</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>-41%</t>
+  </si>
+  <si>
+    <t>-34%</t>
+  </si>
+  <si>
+    <t>-45%</t>
+  </si>
+  <si>
+    <t>-37%</t>
+  </si>
+  <si>
+    <t>Иное: от 3шт.</t>
+  </si>
+  <si>
+    <t>-50%</t>
+  </si>
+  <si>
+    <t>-20%</t>
+  </si>
+  <si>
+    <t>-35%</t>
+  </si>
+  <si>
+    <t>По карте</t>
+  </si>
+  <si>
+    <t>-40%</t>
+  </si>
+  <si>
+    <t>-28%</t>
+  </si>
+  <si>
+    <t>-38%</t>
+  </si>
+  <si>
+    <t>-47%</t>
+  </si>
+  <si>
+    <t>-27%</t>
+  </si>
+  <si>
+    <t>От 2 штук</t>
+  </si>
+  <si>
+    <t>-29%</t>
+  </si>
+  <si>
+    <t>-36%</t>
+  </si>
+  <si>
+    <t>-33%</t>
+  </si>
+  <si>
+    <t>-25%</t>
+  </si>
+  <si>
+    <t>-31%</t>
+  </si>
+  <si>
+    <t>-30%</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/954b231e-e93b-5819-9003-44bb612bad6b</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/5db53466-249c-5a5f-82c5-e76cb50e8da1</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/60d312d0-04d2-53a2-ac8b-d8bac6d7e2d4</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/114ced05-9ded-5316-b58c-22ced6afc45a</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/acf48643-77af-573a-8b0f-cfec2007c137</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/f5afbd0e-1c2a-5d37-b58e-3e14b1bd6bca</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/016da8f6-cc0f-5522-be51-46f191f4ec89</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/7e89a11a-b312-5df6-b451-896b0636ba61</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/39b4a328-8fc5-5d7c-87d6-37f21371f12e</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/7ba2318d-cecd-565d-9b17-f9fb4d64fd03</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/98c99a86-3487-55ec-920c-0c784c4f3f52</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/46e7c2d7-5f79-5c40-94a1-4e37968cbc71</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/9e84f176-c002-55c5-86d6-97e4631497db</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/a866a4b6-07ae-5b65-9c2c-1d203c58b9ad</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/876a7fe9-1bb4-5a31-babd-02bd4f9283f2</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/f210c860-1415-5ab3-a66a-c9855a3c55a6</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/5d0d9cb8-3fdb-575e-a807-596b6a49d325</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/0144bd92-81e5-58bb-bce0-b37ae7454140</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/455e62f8-6625-5429-8855-7285ef05ace3</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/39f0354f-8014-5588-9831-318793047bf2</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/98fba68d-48ae-528d-974b-c8c09d427627</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/96b62442-b8bf-5139-aed9-8751d5927a0c</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/389ea39a-f894-5471-a05b-f944b9f76c05</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/1c80f0ed-55de-5af9-810c-8262e8560bc7</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/1e704895-a09e-5380-8164-01104e365595</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/488ef337-3bc9-5535-80d0-60d7f5c52c55</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/94f2a08c-c9d3-5b38-aa80-65ea97c399fe</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/70afcbec-6b69-5024-80a6-76473ef38dd3</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/c0158d06-320b-5c11-98fd-7d888b13847e</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/c5fd4a2a-c964-5016-b166-6f9cf49cf4df</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/ed696ca2-e62f-5d42-8b02-d4b69d93f74d</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/b849e175-9832-5b3f-b9f6-84dee4d806e8</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/c73b8a31-a280-5a7a-ba35-0ec64d0aa553</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/93322084-2a1b-59c1-8cb4-9b1460e5fd2a</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/d21fef21-0d83-59e6-9dfc-97a6e9970aa0</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/d97b479d-bb51-5bd0-8c07-a8802fcb29e7</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/eac29a22-3a61-5cc1-8aa6-0915d93fc903</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/e2dc15f2-70ee-5d95-a2b3-e1dc98f82142</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/7089b483-4377-55cd-983a-08c4e6fe3eb0</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/8c50f65c-6794-5672-8a99-d48c227f65b3</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/9348dd81-20cf-5191-820e-e29ddd5f1e8e</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/79795e65-21be-5f7f-acab-fdaa21c0d4ca</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/246d735d-fa1f-5961-b23f-ea8ef1175fd6</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/74014ae4-12d2-5dcb-a439-c68fd9bab4bf</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/1476c2b3-d5b9-5eda-97aa-b8e9b9e81c1a</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/b2751fa1-90ac-51d4-b8d5-600efb1ca6a5</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/64d3fed4-4365-53e8-a4c4-3d2a08363cf6</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/9a138ddc-930e-557a-9b18-e7f798ba918b</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/75bd4a30-56c3-51c0-bf84-f47effbaed7a</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/9e759a6b-5ff9-50a9-b9aa-6cd84cd3c094</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/69031611-5666-537a-bf9f-ffb5f637b67b</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/8196d2e7-8f51-5388-af80-88cce1ec9e5e</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/9cb3e63f-139b-520b-9a2a-9360d5e7e0c2</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/1a895b3d-dece-545c-8f60-10ebd14b8609</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/499d46a0-cbd9-5336-b1cb-f3de414e8373</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/92af421e-58f1-5bb3-a9cc-633158c1fcd1</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/0bbeef78-e8ce-5be6-b6cf-fdfa359b6d59</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/d0b8cc4c-7ced-5017-9d3c-5a3862471fd8</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/60a5f35d-c443-5b6b-84d9-c10ce03220d3</t>
+  </si>
+  <si>
+    <t>https://edadeal.ru/barnaul/offers/96d8f4bd-76ec-5653-a596-71cc87c4f47e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +854,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,27 +895,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +967,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +1001,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +1053,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,14 +1246,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +1296,2010 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>189</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" t="s">
+        <v>176</v>
+      </c>
+      <c r="K33" t="s">
+        <v>191</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" t="s">
+        <v>177</v>
+      </c>
+      <c r="K35" t="s">
+        <v>197</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" t="s">
+        <v>200</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" t="s">
+        <v>178</v>
+      </c>
+      <c r="K38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" t="s">
+        <v>200</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" t="s">
+        <v>175</v>
+      </c>
+      <c r="K41" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" t="s">
+        <v>114</v>
+      </c>
+      <c r="J43" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" t="s">
+        <v>195</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" t="s">
+        <v>182</v>
+      </c>
+      <c r="K44" t="s">
+        <v>203</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45" t="s">
+        <v>203</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" t="s">
+        <v>149</v>
+      </c>
+      <c r="J47" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" t="s">
+        <v>203</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" t="s">
+        <v>198</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" t="s">
+        <v>198</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" t="s">
+        <v>185</v>
+      </c>
+      <c r="K50" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" t="s">
+        <v>210</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" t="s">
+        <v>153</v>
+      </c>
+      <c r="J52" t="s">
+        <v>164</v>
+      </c>
+      <c r="K52" t="s">
+        <v>199</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" t="s">
+        <v>126</v>
+      </c>
+      <c r="K53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" t="s">
+        <v>167</v>
+      </c>
+      <c r="K54" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" t="s">
+        <v>155</v>
+      </c>
+      <c r="J55" t="s">
+        <v>186</v>
+      </c>
+      <c r="K55" t="s">
+        <v>200</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" t="s">
+        <v>156</v>
+      </c>
+      <c r="J56" t="s">
+        <v>187</v>
+      </c>
+      <c r="K56" t="s">
+        <v>201</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" t="s">
+        <v>161</v>
+      </c>
+      <c r="K57" t="s">
+        <v>195</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" t="s">
+        <v>175</v>
+      </c>
+      <c r="K58" t="s">
+        <v>207</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" t="s">
+        <v>168</v>
+      </c>
+      <c r="K59" t="s">
+        <v>198</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J60" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60" t="s">
+        <v>197</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" t="s">
+        <v>157</v>
+      </c>
+      <c r="J61" t="s">
+        <v>175</v>
+      </c>
+      <c r="K61" t="s">
+        <v>207</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="L52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>